--- a/6/1/1/3/4/Posiciones 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/3/4/Posiciones 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="191">
   <si>
     <t>Serie</t>
   </si>
@@ -584,6 +584,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -941,7 +944,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R175"/>
+  <dimension ref="A1:R176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10584,31 +10587,31 @@
         <v>187</v>
       </c>
       <c r="B173">
-        <v>7980</v>
+        <v>8027</v>
       </c>
       <c r="C173">
-        <v>6637</v>
+        <v>6634</v>
       </c>
       <c r="D173">
-        <v>17549</v>
+        <v>17546</v>
       </c>
       <c r="E173">
-        <v>10912</v>
+        <v>10911</v>
       </c>
       <c r="F173">
-        <v>1343</v>
+        <v>1393</v>
       </c>
       <c r="G173">
-        <v>2314</v>
+        <v>2364</v>
       </c>
       <c r="H173">
         <v>971</v>
       </c>
       <c r="I173">
-        <v>31745</v>
+        <v>31792</v>
       </c>
       <c r="J173">
-        <v>28461</v>
+        <v>28457</v>
       </c>
       <c r="K173">
         <v>236</v>
@@ -10617,22 +10620,22 @@
         <v>1264</v>
       </c>
       <c r="M173">
-        <v>5342</v>
+        <v>5343</v>
       </c>
       <c r="N173">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="O173">
-        <v>2716</v>
+        <v>2713</v>
       </c>
       <c r="P173">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="Q173">
-        <v>14436</v>
+        <v>14435</v>
       </c>
       <c r="R173">
-        <v>3284</v>
+        <v>3334</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10640,31 +10643,31 @@
         <v>188</v>
       </c>
       <c r="B174">
-        <v>7121</v>
+        <v>7171</v>
       </c>
       <c r="C174">
-        <v>5771</v>
+        <v>5770</v>
       </c>
       <c r="D174">
-        <v>16764</v>
+        <v>16759</v>
       </c>
       <c r="E174">
-        <v>10993</v>
+        <v>10988</v>
       </c>
       <c r="F174">
-        <v>1350</v>
+        <v>1400</v>
       </c>
       <c r="G174">
-        <v>2314</v>
+        <v>2364</v>
       </c>
       <c r="H174">
         <v>963</v>
       </c>
       <c r="I174">
-        <v>31034</v>
+        <v>31074</v>
       </c>
       <c r="J174">
-        <v>27756</v>
+        <v>27747</v>
       </c>
       <c r="K174">
         <v>154</v>
@@ -10673,22 +10676,22 @@
         <v>1461</v>
       </c>
       <c r="M174">
-        <v>4764</v>
+        <v>4765</v>
       </c>
       <c r="N174">
-        <v>2515</v>
+        <v>2511</v>
       </c>
       <c r="O174">
-        <v>2766</v>
+        <v>2759</v>
       </c>
       <c r="P174">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="Q174">
-        <v>14417</v>
+        <v>14416</v>
       </c>
       <c r="R174">
-        <v>3277</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10696,55 +10699,111 @@
         <v>189</v>
       </c>
       <c r="B175">
-        <v>6613</v>
+        <v>6662</v>
       </c>
       <c r="C175">
-        <v>5292</v>
+        <v>5290</v>
       </c>
       <c r="D175">
-        <v>16510</v>
+        <v>16504</v>
       </c>
       <c r="E175">
-        <v>11219</v>
+        <v>11214</v>
       </c>
       <c r="F175">
-        <v>1322</v>
+        <v>1372</v>
       </c>
       <c r="G175">
-        <v>2282</v>
+        <v>2332</v>
       </c>
       <c r="H175">
         <v>960</v>
       </c>
       <c r="I175">
-        <v>30970</v>
+        <v>31010</v>
       </c>
       <c r="J175">
-        <v>27729</v>
+        <v>27719</v>
       </c>
       <c r="K175">
         <v>130</v>
       </c>
       <c r="L175">
-        <v>1418</v>
+        <v>1427</v>
       </c>
       <c r="M175">
-        <v>4837</v>
+        <v>4831</v>
       </c>
       <c r="N175">
-        <v>2379</v>
+        <v>2373</v>
       </c>
       <c r="O175">
-        <v>2719</v>
+        <v>2711</v>
       </c>
       <c r="P175">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="Q175">
-        <v>14629</v>
+        <v>14628</v>
       </c>
       <c r="R175">
-        <v>3242</v>
+        <v>3292</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18">
+      <c r="A176" t="s">
+        <v>190</v>
+      </c>
+      <c r="B176">
+        <v>5797</v>
+      </c>
+      <c r="C176">
+        <v>4407</v>
+      </c>
+      <c r="D176">
+        <v>15731</v>
+      </c>
+      <c r="E176">
+        <v>11324</v>
+      </c>
+      <c r="F176">
+        <v>1390</v>
+      </c>
+      <c r="G176">
+        <v>2332</v>
+      </c>
+      <c r="H176">
+        <v>941</v>
+      </c>
+      <c r="I176">
+        <v>30327</v>
+      </c>
+      <c r="J176">
+        <v>27055</v>
+      </c>
+      <c r="K176">
+        <v>151</v>
+      </c>
+      <c r="L176">
+        <v>999</v>
+      </c>
+      <c r="M176">
+        <v>4447</v>
+      </c>
+      <c r="N176">
+        <v>2502</v>
+      </c>
+      <c r="O176">
+        <v>2683</v>
+      </c>
+      <c r="P176">
+        <v>1624</v>
+      </c>
+      <c r="Q176">
+        <v>14648</v>
+      </c>
+      <c r="R176">
+        <v>3273</v>
       </c>
     </row>
   </sheetData>

--- a/6/1/1/3/4/Posiciones 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/3/4/Posiciones 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="192">
   <si>
     <t>Serie</t>
   </si>
@@ -587,6 +587,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -944,7 +947,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R176"/>
+  <dimension ref="A1:R177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10643,31 +10646,31 @@
         <v>188</v>
       </c>
       <c r="B174">
-        <v>7171</v>
+        <v>7310</v>
       </c>
       <c r="C174">
-        <v>5770</v>
+        <v>5888</v>
       </c>
       <c r="D174">
-        <v>16759</v>
+        <v>16758</v>
       </c>
       <c r="E174">
-        <v>10988</v>
+        <v>10870</v>
       </c>
       <c r="F174">
-        <v>1400</v>
+        <v>1422</v>
       </c>
       <c r="G174">
-        <v>2364</v>
+        <v>2386</v>
       </c>
       <c r="H174">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="I174">
-        <v>31074</v>
+        <v>30978</v>
       </c>
       <c r="J174">
-        <v>27747</v>
+        <v>27629</v>
       </c>
       <c r="K174">
         <v>154</v>
@@ -10676,22 +10679,22 @@
         <v>1461</v>
       </c>
       <c r="M174">
-        <v>4765</v>
+        <v>4766</v>
       </c>
       <c r="N174">
-        <v>2511</v>
+        <v>2509</v>
       </c>
       <c r="O174">
-        <v>2759</v>
+        <v>2756</v>
       </c>
       <c r="P174">
-        <v>1680</v>
+        <v>1684</v>
       </c>
       <c r="Q174">
-        <v>14416</v>
+        <v>14299</v>
       </c>
       <c r="R174">
-        <v>3327</v>
+        <v>3349</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10699,31 +10702,31 @@
         <v>189</v>
       </c>
       <c r="B175">
-        <v>6662</v>
+        <v>6801</v>
       </c>
       <c r="C175">
-        <v>5290</v>
+        <v>5407</v>
       </c>
       <c r="D175">
         <v>16504</v>
       </c>
       <c r="E175">
-        <v>11214</v>
+        <v>11096</v>
       </c>
       <c r="F175">
-        <v>1372</v>
+        <v>1393</v>
       </c>
       <c r="G175">
-        <v>2332</v>
+        <v>2353</v>
       </c>
       <c r="H175">
         <v>960</v>
       </c>
       <c r="I175">
-        <v>31010</v>
+        <v>30914</v>
       </c>
       <c r="J175">
-        <v>27719</v>
+        <v>27600</v>
       </c>
       <c r="K175">
         <v>130</v>
@@ -10732,22 +10735,22 @@
         <v>1427</v>
       </c>
       <c r="M175">
-        <v>4831</v>
+        <v>4819</v>
       </c>
       <c r="N175">
-        <v>2373</v>
+        <v>2383</v>
       </c>
       <c r="O175">
-        <v>2711</v>
+        <v>2708</v>
       </c>
       <c r="P175">
-        <v>1618</v>
+        <v>1622</v>
       </c>
       <c r="Q175">
-        <v>14628</v>
+        <v>14510</v>
       </c>
       <c r="R175">
-        <v>3292</v>
+        <v>3314</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10755,55 +10758,111 @@
         <v>190</v>
       </c>
       <c r="B176">
-        <v>5797</v>
+        <v>5957</v>
       </c>
       <c r="C176">
-        <v>4407</v>
+        <v>4545</v>
       </c>
       <c r="D176">
-        <v>15731</v>
+        <v>15746</v>
       </c>
       <c r="E176">
-        <v>11324</v>
+        <v>11202</v>
       </c>
       <c r="F176">
-        <v>1390</v>
+        <v>1412</v>
       </c>
       <c r="G176">
-        <v>2332</v>
+        <v>2353</v>
       </c>
       <c r="H176">
         <v>941</v>
       </c>
       <c r="I176">
-        <v>30327</v>
+        <v>30243</v>
       </c>
       <c r="J176">
-        <v>27055</v>
+        <v>26948</v>
       </c>
       <c r="K176">
         <v>151</v>
       </c>
       <c r="L176">
-        <v>999</v>
+        <v>1007</v>
       </c>
       <c r="M176">
-        <v>4447</v>
+        <v>4441</v>
       </c>
       <c r="N176">
-        <v>2502</v>
+        <v>2507</v>
       </c>
       <c r="O176">
-        <v>2683</v>
+        <v>2685</v>
       </c>
       <c r="P176">
-        <v>1624</v>
+        <v>1628</v>
       </c>
       <c r="Q176">
-        <v>14648</v>
+        <v>14530</v>
       </c>
       <c r="R176">
-        <v>3273</v>
+        <v>3295</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18">
+      <c r="A177" t="s">
+        <v>191</v>
+      </c>
+      <c r="B177">
+        <v>5408</v>
+      </c>
+      <c r="C177">
+        <v>3989</v>
+      </c>
+      <c r="D177">
+        <v>15798</v>
+      </c>
+      <c r="E177">
+        <v>11809</v>
+      </c>
+      <c r="F177">
+        <v>1419</v>
+      </c>
+      <c r="G177">
+        <v>2353</v>
+      </c>
+      <c r="H177">
+        <v>935</v>
+      </c>
+      <c r="I177">
+        <v>30896</v>
+      </c>
+      <c r="J177">
+        <v>27608</v>
+      </c>
+      <c r="K177">
+        <v>163</v>
+      </c>
+      <c r="L177">
+        <v>1215</v>
+      </c>
+      <c r="M177">
+        <v>4334</v>
+      </c>
+      <c r="N177">
+        <v>2566</v>
+      </c>
+      <c r="O177">
+        <v>2741</v>
+      </c>
+      <c r="P177">
+        <v>1635</v>
+      </c>
+      <c r="Q177">
+        <v>14953</v>
+      </c>
+      <c r="R177">
+        <v>3288</v>
       </c>
     </row>
   </sheetData>

--- a/6/1/1/3/4/Posiciones 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/3/4/Posiciones 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="193">
   <si>
     <t>Serie</t>
   </si>
@@ -590,6 +590,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -947,7 +950,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R177"/>
+  <dimension ref="A1:R178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10702,16 +10705,16 @@
         <v>189</v>
       </c>
       <c r="B175">
-        <v>6801</v>
+        <v>6797</v>
       </c>
       <c r="C175">
-        <v>5407</v>
+        <v>5404</v>
       </c>
       <c r="D175">
-        <v>16504</v>
+        <v>16537</v>
       </c>
       <c r="E175">
-        <v>11096</v>
+        <v>11133</v>
       </c>
       <c r="F175">
         <v>1393</v>
@@ -10723,10 +10726,10 @@
         <v>960</v>
       </c>
       <c r="I175">
-        <v>30914</v>
+        <v>30983</v>
       </c>
       <c r="J175">
-        <v>27600</v>
+        <v>27670</v>
       </c>
       <c r="K175">
         <v>130</v>
@@ -10735,19 +10738,19 @@
         <v>1427</v>
       </c>
       <c r="M175">
-        <v>4819</v>
+        <v>4820</v>
       </c>
       <c r="N175">
-        <v>2383</v>
+        <v>2384</v>
       </c>
       <c r="O175">
-        <v>2708</v>
+        <v>2697</v>
       </c>
       <c r="P175">
-        <v>1622</v>
+        <v>1635</v>
       </c>
       <c r="Q175">
-        <v>14510</v>
+        <v>14577</v>
       </c>
       <c r="R175">
         <v>3314</v>
@@ -10758,16 +10761,16 @@
         <v>190</v>
       </c>
       <c r="B176">
-        <v>5957</v>
+        <v>5962</v>
       </c>
       <c r="C176">
-        <v>4545</v>
+        <v>4550</v>
       </c>
       <c r="D176">
-        <v>15746</v>
+        <v>15784</v>
       </c>
       <c r="E176">
-        <v>11202</v>
+        <v>11234</v>
       </c>
       <c r="F176">
         <v>1412</v>
@@ -10779,10 +10782,10 @@
         <v>941</v>
       </c>
       <c r="I176">
-        <v>30243</v>
+        <v>30313</v>
       </c>
       <c r="J176">
-        <v>26948</v>
+        <v>27019</v>
       </c>
       <c r="K176">
         <v>151</v>
@@ -10791,19 +10794,19 @@
         <v>1007</v>
       </c>
       <c r="M176">
-        <v>4441</v>
+        <v>4442</v>
       </c>
       <c r="N176">
-        <v>2507</v>
+        <v>2504</v>
       </c>
       <c r="O176">
-        <v>2685</v>
+        <v>2678</v>
       </c>
       <c r="P176">
-        <v>1628</v>
+        <v>1640</v>
       </c>
       <c r="Q176">
-        <v>14530</v>
+        <v>14597</v>
       </c>
       <c r="R176">
         <v>3295</v>
@@ -10814,16 +10817,16 @@
         <v>191</v>
       </c>
       <c r="B177">
-        <v>5408</v>
+        <v>5410</v>
       </c>
       <c r="C177">
-        <v>3989</v>
+        <v>3991</v>
       </c>
       <c r="D177">
-        <v>15798</v>
+        <v>15833</v>
       </c>
       <c r="E177">
-        <v>11809</v>
+        <v>11841</v>
       </c>
       <c r="F177">
         <v>1419</v>
@@ -10835,34 +10838,90 @@
         <v>935</v>
       </c>
       <c r="I177">
-        <v>30896</v>
+        <v>30962</v>
       </c>
       <c r="J177">
-        <v>27608</v>
+        <v>27674</v>
       </c>
       <c r="K177">
         <v>163</v>
       </c>
       <c r="L177">
-        <v>1215</v>
+        <v>1230</v>
       </c>
       <c r="M177">
-        <v>4334</v>
+        <v>4320</v>
       </c>
       <c r="N177">
-        <v>2566</v>
+        <v>2559</v>
       </c>
       <c r="O177">
-        <v>2741</v>
+        <v>2734</v>
       </c>
       <c r="P177">
-        <v>1635</v>
+        <v>1647</v>
       </c>
       <c r="Q177">
-        <v>14953</v>
+        <v>15020</v>
       </c>
       <c r="R177">
         <v>3288</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18">
+      <c r="A178" t="s">
+        <v>192</v>
+      </c>
+      <c r="B178">
+        <v>5070</v>
+      </c>
+      <c r="C178">
+        <v>3645</v>
+      </c>
+      <c r="D178">
+        <v>15781</v>
+      </c>
+      <c r="E178">
+        <v>12136</v>
+      </c>
+      <c r="F178">
+        <v>1425</v>
+      </c>
+      <c r="G178">
+        <v>2353</v>
+      </c>
+      <c r="H178">
+        <v>928</v>
+      </c>
+      <c r="I178">
+        <v>31198</v>
+      </c>
+      <c r="J178">
+        <v>27916</v>
+      </c>
+      <c r="K178">
+        <v>119</v>
+      </c>
+      <c r="L178">
+        <v>1513</v>
+      </c>
+      <c r="M178">
+        <v>4186</v>
+      </c>
+      <c r="N178">
+        <v>2540</v>
+      </c>
+      <c r="O178">
+        <v>2784</v>
+      </c>
+      <c r="P178">
+        <v>1662</v>
+      </c>
+      <c r="Q178">
+        <v>15113</v>
+      </c>
+      <c r="R178">
+        <v>3281</v>
       </c>
     </row>
   </sheetData>
